--- a/ig/ch-core/StructureDefinition-ch-core-range-with-emed-units.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-range-with-emed-units.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-range-with-emed-units.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-range-with-emed-units.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -344,30 +344,48 @@
     <t>Range.low</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-quantity-with-emed-units}
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+    <t>Low limit</t>
+  </si>
+  <si>
+    <t>The low limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the low boundary is not known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>NR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
   </si>
   <si>
     <t>Range.high</t>
+  </si>
+  <si>
+    <t>High limit</t>
+  </si>
+  <si>
+    <t>The high limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the high element is missing, the high boundary is not known.</t>
+  </si>
+  <si>
+    <t>NR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
 </sst>
 </file>
@@ -691,43 +709,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.1015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="44.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="94.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="38.19140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="81.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1193,19 +1211,19 @@
         <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1264,24 +1282,24 @@
         <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1301,19 +1319,19 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1363,7 +1381,7 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -1372,16 +1390,16 @@
         <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-range-with-emed-units.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-range-with-emed-units.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
